--- a/Calificaciones/Notas-Corte 3.xlsx
+++ b/Calificaciones/Notas-Corte 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itceduco-my.sharepoint.com/personal/jfvillavisanb_itc_edu_co/Documents/Control II/Sistemas-de-Control-II---Ingenier-a-Mecatr-nica/Calificaciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itceduco-my.sharepoint.com/personal/jfvillavisanb_itc_edu_co/Documents/A_Control II/Sistemas-de-Control-II---Ingenier-a-Mecatr-nica/Calificaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D8F79E-40A0-410A-A71A-48643E88A983}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794BF1D9-8585-436A-9650-E5FAFA0E0C05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
+    <workbookView xWindow="7320" yWindow="5655" windowWidth="20505" windowHeight="14820" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Lista de Alumnos por Grupo</t>
   </si>
@@ -65,6 +65,81 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>1057598572</t>
+  </si>
+  <si>
+    <t>1031182268</t>
+  </si>
+  <si>
+    <t>1193114671</t>
+  </si>
+  <si>
+    <t>1014977282</t>
+  </si>
+  <si>
+    <t>1012408500</t>
+  </si>
+  <si>
+    <t>1072366243</t>
+  </si>
+  <si>
+    <t>1024578783</t>
+  </si>
+  <si>
+    <t>1013605032</t>
+  </si>
+  <si>
+    <t>1001346239</t>
+  </si>
+  <si>
+    <t>1032475155</t>
+  </si>
+  <si>
+    <t>1002725756</t>
+  </si>
+  <si>
+    <t>1000992464</t>
+  </si>
+  <si>
+    <t>1006004487</t>
+  </si>
+  <si>
+    <t>52966940</t>
+  </si>
+  <si>
+    <t>1233495120</t>
+  </si>
+  <si>
+    <t>1117521723</t>
+  </si>
+  <si>
+    <t>1022440017</t>
+  </si>
+  <si>
+    <t>1005718399</t>
+  </si>
+  <si>
+    <t>1000794467</t>
+  </si>
+  <si>
+    <t>1000984450</t>
+  </si>
+  <si>
+    <t>1143436203</t>
+  </si>
+  <si>
+    <t>1016084263</t>
+  </si>
+  <si>
+    <t>1000685576</t>
+  </si>
+  <si>
+    <t>1010168403</t>
+  </si>
+  <si>
+    <t>1030533099</t>
   </si>
 </sst>
 </file>
@@ -131,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,10 +229,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +547,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E44"/>
+      <selection activeCell="B5" sqref="B5:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -528,8 +600,9 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" si="0">+C5*0.8+D5*0.2</f>
         <v>0</v>
@@ -539,8 +612,9 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -550,8 +624,11 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="5">
         <f>+C7*0.8+D7*0.2</f>
         <v>0</v>
@@ -561,8 +638,11 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="5">
         <f t="shared" ref="E8:E44" si="1">+C8*0.8+D8*0.2</f>
         <v>0</v>
@@ -572,8 +652,11 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -583,8 +666,11 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -594,8 +680,11 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -605,8 +694,11 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -616,8 +708,11 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -627,8 +722,9 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -638,8 +734,11 @@
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -649,8 +748,11 @@
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -660,8 +762,11 @@
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -671,8 +776,11 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -682,8 +790,9 @@
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -693,8 +802,11 @@
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -704,8 +816,11 @@
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -715,8 +830,9 @@
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -726,8 +842,11 @@
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -737,8 +856,11 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -748,8 +870,11 @@
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -759,8 +884,11 @@
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -770,8 +898,11 @@
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -781,8 +912,11 @@
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -792,8 +926,9 @@
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -803,8 +938,8 @@
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -814,8 +949,8 @@
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -825,8 +960,8 @@
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -836,8 +971,8 @@
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -847,8 +982,8 @@
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
